--- a/download/CurrentDateTime.xlsx
+++ b/download/CurrentDateTime.xlsx
@@ -404,7 +404,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>5/2/2025, 3:30:46 pm</v>
+        <v>2/11/2025, 12:23:31 PM</v>
       </c>
     </row>
   </sheetData>

--- a/download/CurrentDateTime.xlsx
+++ b/download/CurrentDateTime.xlsx
@@ -404,7 +404,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>2/11/2025, 12:23:31 PM</v>
+        <v>2/11/2025, 1:36:06 PM</v>
       </c>
     </row>
   </sheetData>

--- a/download/CurrentDateTime.xlsx
+++ b/download/CurrentDateTime.xlsx
@@ -404,7 +404,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>2/11/2025, 1:36:06 PM</v>
+        <v>2/11/2025, 5:30:16 PM</v>
       </c>
     </row>
   </sheetData>

--- a/download/CurrentDateTime.xlsx
+++ b/download/CurrentDateTime.xlsx
@@ -404,7 +404,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>2/11/2025, 5:30:16 PM</v>
+        <v>11/2/2025, 6:46:28 pm</v>
       </c>
     </row>
   </sheetData>

--- a/download/CurrentDateTime.xlsx
+++ b/download/CurrentDateTime.xlsx
@@ -404,7 +404,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>11/2/2025, 6:46:28 pm</v>
+        <v>12/2/2025, 10:58:47 am</v>
       </c>
     </row>
   </sheetData>
